--- a/medicine/Enfance/Alan_Bradley/Alan_Bradley.xlsx
+++ b/medicine/Enfance/Alan_Bradley/Alan_Bradley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alan Bradley, né en 1938 à Toronto, en Ontario, au Canada, est un écrivain canadien, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Toronto, il passe sa jeunesse dans la petite ville de Cobourg, sur la côte nord du lac Ontario, dans comté de Northumberland. 
 Il fait des études supérieures en électrotechnique de la télévision à l'Université Ryerson. Après l'obtention de ses diplômes, il travaille de nombreuses années pour la télévision canadienne à Saskatoon, écrit des chroniques dans la presse, puis occupe un poste de professeur à l'Université de la Saskatchewan, avant de prendre une retraite hâtive pour se consacrer entièrement à l'écriture. Il réside un temps sur l'île de Gozo de l'archipel maltais, puis déménage à l'île de Man.
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Flavia de Luce
-The Sweetness at the Bottom of the Pie (en) (2009) Publié en français sous le titre Les Étranges Talents de Flavia de Luce, Paris, Éditions Jean-Claude Lattès (2010)  (ISBN 978-2-7096-3089-4) ; réédition, Paris, Éditions du Masque, coll. « MSK » (2010)  (ISBN 978-2-7024-3503-8) : réédition, Paris, 10/18, coll. « Grands détectives » no 4759 (2013)  (ISBN 978-2-264-06132-4)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Flavia de Luce</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Sweetness at the Bottom of the Pie (en) (2009) Publié en français sous le titre Les Étranges Talents de Flavia de Luce, Paris, Éditions Jean-Claude Lattès (2010)  (ISBN 978-2-7096-3089-4) ; réédition, Paris, Éditions du Masque, coll. « MSK » (2010)  (ISBN 978-2-7024-3503-8) : réédition, Paris, 10/18, coll. « Grands détectives » no 4759 (2013)  (ISBN 978-2-264-06132-4)
 The Weed That Strings the Hangman's Bag (2009) Publié en français sous le titre La mort n'est pas un jeu d'enfant, Paris, Éditions du Masque, coll. « MSK » (2011)  (ISBN 978-2-7024-3626-4) ; réédition, Paris, 10/18, coll. « Grands détectives » no 4763 (2013)  (ISBN 978-2-264-06170-6)
 A Red Herring Without Mustard (2011) Publié en français sous le titre La Mort dans une boule de cristal, Paris, Éditions du Masque, coll. « MSK » (2012)  (ISBN 978-2-7024-3696-7) ; réédition, Paris, 10/18, coll. « Grands détectives » no 4785 (2014)  (ISBN 978-2-264-06267-3)
 I Am Half Sick of Shadows (2011) Publié en français sous le titre Je suis lasse des ombres, Paris, 10/18, coll. « Grands détectives » no 4910 (2015)  (ISBN 978-2-264-06439-4)
@@ -557,10 +579,7 @@
 As Chimney Sweepers Come To Dust (2015)
 The Curious Case of the Copper Corpse (2014)
 Thrice the Brinded Cat Hath Mew'd (2017)
-The Grave’s a Fine and Private Place (2018)
-Autres ouvrages
-Ms. Holmes of Baker Street (1980), coécrit avec William A. S. Sarjeant
-The Shoebox Bible (2006)</t>
+The Grave’s a Fine and Private Place (2018)</t>
         </is>
       </c>
     </row>
@@ -585,19 +604,95 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ms. Holmes of Baker Street (1980), coécrit avec William A. S. Sarjeant
+The Shoebox Bible (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alan_Bradley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Bradley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Agatha 2009  du meilleur premier roman pour The Sweetness At the Bottom of the Pie[1]
-Prix Arthur-Ellis 2010 du meilleur premier roman pour The Sweetness At the Bottom of the Pie[2]
-Prix Barry 2010 du meilleur roman pour The Sweetness At the Bottom of the Pie[3]
-Prix Dilys 2010 du meilleur roman pour The Sweetness At the Bottom of the Pie[4]
-Prix Macavity 2010 du meilleur premier roman pour The Sweetness At the Bottom of the Pie[5]
-Nominations
-Prix Anthony 2010 du meilleur premier roman pour The Sweetness At the Bottom of the Pie[6]</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Agatha 2009  du meilleur premier roman pour The Sweetness At the Bottom of the Pie
+Prix Arthur-Ellis 2010 du meilleur premier roman pour The Sweetness At the Bottom of the Pie
+Prix Barry 2010 du meilleur roman pour The Sweetness At the Bottom of the Pie
+Prix Dilys 2010 du meilleur roman pour The Sweetness At the Bottom of the Pie
+Prix Macavity 2010 du meilleur premier roman pour The Sweetness At the Bottom of the Pie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alan_Bradley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Bradley</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Anthony 2010 du meilleur premier roman pour The Sweetness At the Bottom of the Pie</t>
         </is>
       </c>
     </row>
